--- a/data/获取数据/政策导向指标/非国企20年数据/301291.xlsx
+++ b/data/获取数据/政策导向指标/非国企20年数据/301291.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="112">
   <si>
     <t>股票名称</t>
   </si>
@@ -55,12 +55,36 @@
     <t>换手率</t>
   </si>
   <si>
+    <t>证券代码</t>
+  </si>
+  <si>
+    <t>证券简称</t>
+  </si>
+  <si>
+    <t>变动日期</t>
+  </si>
+  <si>
+    <t>实际控制人名称</t>
+  </si>
+  <si>
+    <t>控股数量(万股)</t>
+  </si>
+  <si>
+    <t>控股比例(%)</t>
+  </si>
+  <si>
+    <t>直接控制人名称</t>
+  </si>
+  <si>
+    <t>控制方式</t>
+  </si>
+  <si>
+    <t>政府支持度</t>
+  </si>
+  <si>
     <t>明阳电气</t>
   </si>
   <si>
-    <t>301291</t>
-  </si>
-  <si>
     <t>2023-06-30</t>
   </si>
   <si>
@@ -314,6 +338,18 @@
   </si>
   <si>
     <t>2023-11-03</t>
+  </si>
+  <si>
+    <t>2023-06-29</t>
+  </si>
+  <si>
+    <t>张传卫</t>
+  </si>
+  <si>
+    <t>明阳新能源投资控股集团有限公司;中山市瑞进新能源投资发展有限公司</t>
+  </si>
+  <si>
+    <t>单独控制</t>
   </si>
 </sst>
 </file>
@@ -671,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M86"/>
+  <dimension ref="A1:V87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,16 +753,43 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>301291</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D2">
         <v>35.24</v>
@@ -759,1389 +822,1377 @@
         <v>42.84</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3">
+    <row r="3" spans="1:22">
+      <c r="N3">
+        <v>301291</v>
+      </c>
+      <c r="O3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>109</v>
+      </c>
+      <c r="R3">
+        <v>13743</v>
+      </c>
+      <c r="S3">
+        <v>44.02</v>
+      </c>
+      <c r="T3" t="s">
+        <v>110</v>
+      </c>
+      <c r="U3" t="s">
+        <v>111</v>
+      </c>
+      <c r="V3">
+        <v>67.87747534780797</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>301291</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4">
         <v>31.72</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>32.13</v>
       </c>
-      <c r="F3">
+      <c r="F4">
         <v>32.71</v>
       </c>
-      <c r="G3">
+      <c r="G4">
         <v>31.53</v>
       </c>
-      <c r="H3">
+      <c r="H4">
         <v>162799</v>
       </c>
-      <c r="I3">
+      <c r="I4">
         <v>525719558</v>
       </c>
-      <c r="J3">
+      <c r="J4">
         <v>3.63</v>
       </c>
-      <c r="K3">
+      <c r="K4">
         <v>-1.2</v>
       </c>
-      <c r="L3">
+      <c r="L4">
         <v>-0.39</v>
       </c>
-      <c r="M3">
+      <c r="M4">
         <v>22.83</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4">
+    <row r="5" spans="1:22">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>301291</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5">
         <v>32.14</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>31.98</v>
       </c>
-      <c r="F4">
+      <c r="F5">
         <v>32.47</v>
       </c>
-      <c r="G4">
+      <c r="G5">
         <v>31.77</v>
       </c>
-      <c r="H4">
+      <c r="H5">
         <v>110033</v>
       </c>
-      <c r="I4">
+      <c r="I5">
         <v>353835440</v>
       </c>
-      <c r="J4">
+      <c r="J5">
         <v>2.18</v>
       </c>
-      <c r="K4">
+      <c r="K5">
         <v>-0.47</v>
       </c>
-      <c r="L4">
+      <c r="L5">
         <v>-0.15</v>
       </c>
-      <c r="M4">
+      <c r="M5">
         <v>15.43</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5">
+    <row r="6" spans="1:22">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>301291</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6">
         <v>31.9</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>31.6</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>32.2</v>
       </c>
-      <c r="G5">
+      <c r="G6">
         <v>31.51</v>
       </c>
-      <c r="H5">
+      <c r="H6">
         <v>87827</v>
       </c>
-      <c r="I5">
+      <c r="I6">
         <v>280030941</v>
       </c>
-      <c r="J5">
+      <c r="J6">
         <v>2.16</v>
       </c>
-      <c r="K5">
+      <c r="K6">
         <v>-1.19</v>
       </c>
-      <c r="L5">
+      <c r="L6">
         <v>-0.38</v>
       </c>
-      <c r="M5">
+      <c r="M6">
         <v>12.31</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6">
+    <row r="7" spans="1:22">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <v>301291</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7">
         <v>31.6</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>31.82</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>32.41</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <v>31.32</v>
       </c>
-      <c r="H6">
+      <c r="H7">
         <v>105250</v>
       </c>
-      <c r="I6">
+      <c r="I7">
         <v>335855075</v>
       </c>
-      <c r="J6">
+      <c r="J7">
         <v>3.45</v>
       </c>
-      <c r="K6">
+      <c r="K7">
         <v>0.7</v>
       </c>
-      <c r="L6">
+      <c r="L7">
         <v>0.22</v>
       </c>
-      <c r="M6">
+      <c r="M7">
         <v>14.76</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7">
+    <row r="8" spans="1:22">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <v>301291</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8">
         <v>31.54</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>30.89</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <v>31.58</v>
       </c>
-      <c r="G7">
+      <c r="G8">
         <v>30.88</v>
       </c>
-      <c r="H7">
+      <c r="H8">
         <v>78293</v>
       </c>
-      <c r="I7">
+      <c r="I8">
         <v>244016648</v>
       </c>
-      <c r="J7">
+      <c r="J8">
         <v>2.2</v>
       </c>
-      <c r="K7">
+      <c r="K8">
         <v>-2.92</v>
       </c>
-      <c r="L7">
+      <c r="L8">
         <v>-0.93</v>
       </c>
-      <c r="M7">
+      <c r="M8">
         <v>10.98</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8">
+    <row r="9" spans="1:22">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9">
+        <v>301291</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9">
         <v>30.62</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>30.91</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <v>31.16</v>
       </c>
-      <c r="G8">
+      <c r="G9">
         <v>30.62</v>
       </c>
-      <c r="H8">
+      <c r="H9">
         <v>52087</v>
       </c>
-      <c r="I8">
+      <c r="I9">
         <v>161593475</v>
       </c>
-      <c r="J8">
+      <c r="J9">
         <v>1.75</v>
       </c>
-      <c r="K8">
+      <c r="K9">
         <v>0.06</v>
       </c>
-      <c r="L8">
+      <c r="L9">
         <v>0.02</v>
       </c>
-      <c r="M8">
+      <c r="M9">
         <v>7.3</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9">
+    <row r="10" spans="1:22">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <v>301291</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10">
         <v>30.84</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>31.09</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>31.15</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <v>30.84</v>
       </c>
-      <c r="H9">
+      <c r="H10">
         <v>37289</v>
       </c>
-      <c r="I9">
+      <c r="I10">
         <v>115987907</v>
       </c>
-      <c r="J9">
+      <c r="J10">
         <v>1</v>
       </c>
-      <c r="K9">
+      <c r="K10">
         <v>0.58</v>
       </c>
-      <c r="L9">
+      <c r="L10">
         <v>0.18</v>
       </c>
-      <c r="M9">
+      <c r="M10">
         <v>5.23</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10">
+    <row r="11" spans="1:22">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>301291</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11">
         <v>31.58</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>32.44</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <v>33.29</v>
       </c>
-      <c r="G10">
+      <c r="G11">
         <v>31.5</v>
       </c>
-      <c r="H10">
+      <c r="H11">
         <v>192367</v>
       </c>
-      <c r="I10">
+      <c r="I11">
         <v>625528387</v>
       </c>
-      <c r="J10">
+      <c r="J11">
         <v>5.76</v>
       </c>
-      <c r="K10">
+      <c r="K11">
         <v>4.34</v>
       </c>
-      <c r="L10">
+      <c r="L11">
         <v>1.35</v>
       </c>
-      <c r="M10">
+      <c r="M11">
         <v>26.97</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11">
+    <row r="12" spans="1:22">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <v>301291</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12">
         <v>32.14</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>32.43</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <v>32.92</v>
       </c>
-      <c r="G11">
+      <c r="G12">
         <v>31.8</v>
       </c>
-      <c r="H11">
+      <c r="H12">
         <v>109153</v>
       </c>
-      <c r="I11">
+      <c r="I12">
         <v>353795797</v>
       </c>
-      <c r="J11">
+      <c r="J12">
         <v>3.45</v>
       </c>
-      <c r="K11">
+      <c r="K12">
         <v>-0.03</v>
       </c>
-      <c r="L11">
+      <c r="L12">
         <v>-0.01</v>
       </c>
-      <c r="M11">
+      <c r="M12">
         <v>15.3</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12">
+    <row r="13" spans="1:22">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>301291</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13">
         <v>32.07</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>31.84</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <v>32.56</v>
       </c>
-      <c r="G12">
+      <c r="G13">
         <v>31.82</v>
       </c>
-      <c r="H12">
+      <c r="H13">
         <v>73321</v>
       </c>
-      <c r="I12">
+      <c r="I13">
         <v>235558386</v>
       </c>
-      <c r="J12">
+      <c r="J13">
         <v>2.28</v>
       </c>
-      <c r="K12">
+      <c r="K13">
         <v>-1.82</v>
       </c>
-      <c r="L12">
+      <c r="L13">
         <v>-0.59</v>
       </c>
-      <c r="M12">
+      <c r="M13">
         <v>10.28</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13">
+    <row r="14" spans="1:22">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>301291</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14">
         <v>32.12</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>32.62</v>
       </c>
-      <c r="F13">
+      <c r="F14">
         <v>33.4</v>
       </c>
-      <c r="G13">
+      <c r="G14">
         <v>31.98</v>
       </c>
-      <c r="H13">
+      <c r="H14">
         <v>113469</v>
       </c>
-      <c r="I13">
+      <c r="I14">
         <v>373117271</v>
       </c>
-      <c r="J13">
+      <c r="J14">
         <v>4.46</v>
       </c>
-      <c r="K13">
+      <c r="K14">
         <v>2.45</v>
       </c>
-      <c r="L13">
+      <c r="L14">
         <v>0.78</v>
       </c>
-      <c r="M13">
+      <c r="M14">
         <v>15.91</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14">
+    <row r="15" spans="1:22">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>301291</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15">
         <v>32.47</v>
       </c>
-      <c r="E14">
+      <c r="E15">
         <v>32.49</v>
       </c>
-      <c r="F14">
+      <c r="F15">
         <v>33.2</v>
       </c>
-      <c r="G14">
+      <c r="G15">
         <v>32.22</v>
       </c>
-      <c r="H14">
+      <c r="H15">
         <v>80927</v>
       </c>
-      <c r="I14">
+      <c r="I15">
         <v>264805109</v>
       </c>
-      <c r="J14">
+      <c r="J15">
         <v>3</v>
       </c>
-      <c r="K14">
+      <c r="K15">
         <v>-0.4</v>
       </c>
-      <c r="L14">
+      <c r="L15">
         <v>-0.13</v>
       </c>
-      <c r="M14">
+      <c r="M15">
         <v>11.35</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15">
+    <row r="16" spans="1:22">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16">
+        <v>301291</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16">
         <v>32.22</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <v>32.37</v>
       </c>
-      <c r="F15">
+      <c r="F16">
         <v>32.93</v>
       </c>
-      <c r="G15">
+      <c r="G16">
         <v>32.02</v>
       </c>
-      <c r="H15">
+      <c r="H16">
         <v>64658</v>
       </c>
-      <c r="I15">
+      <c r="I16">
         <v>210367101</v>
       </c>
-      <c r="J15">
+      <c r="J16">
         <v>2.8</v>
       </c>
-      <c r="K15">
+      <c r="K16">
         <v>-0.37</v>
       </c>
-      <c r="L15">
+      <c r="L16">
         <v>-0.12</v>
       </c>
-      <c r="M15">
+      <c r="M16">
         <v>9.07</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16">
-        <v>32.32</v>
-      </c>
-      <c r="E16">
-        <v>31.43</v>
-      </c>
-      <c r="F16">
-        <v>32.58</v>
-      </c>
-      <c r="G16">
-        <v>31.26</v>
-      </c>
-      <c r="H16">
-        <v>61376</v>
-      </c>
-      <c r="I16">
-        <v>195625584</v>
-      </c>
-      <c r="J16">
-        <v>4.08</v>
-      </c>
-      <c r="K16">
-        <v>-2.9</v>
-      </c>
-      <c r="L16">
-        <v>-0.9399999999999999</v>
-      </c>
-      <c r="M16">
-        <v>8.609999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>301291</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D17">
-        <v>31.17</v>
+        <v>32.32</v>
       </c>
       <c r="E17">
-        <v>31.22</v>
+        <v>31.43</v>
       </c>
       <c r="F17">
-        <v>31.49</v>
+        <v>32.58</v>
       </c>
       <c r="G17">
-        <v>31.12</v>
+        <v>31.26</v>
       </c>
       <c r="H17">
-        <v>32025</v>
+        <v>61376</v>
       </c>
       <c r="I17">
-        <v>100366410</v>
+        <v>195625584</v>
       </c>
       <c r="J17">
-        <v>1.18</v>
+        <v>4.08</v>
       </c>
       <c r="K17">
-        <v>-0.67</v>
+        <v>-2.9</v>
       </c>
       <c r="L17">
-        <v>-0.21</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="M17">
-        <v>4.49</v>
+        <v>8.609999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B18">
+        <v>301291</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D18">
+        <v>31.17</v>
+      </c>
+      <c r="E18">
         <v>31.22</v>
       </c>
-      <c r="E18">
-        <v>31.26</v>
-      </c>
       <c r="F18">
-        <v>31.51</v>
+        <v>31.49</v>
       </c>
       <c r="G18">
         <v>31.12</v>
       </c>
       <c r="H18">
-        <v>21325</v>
+        <v>32025</v>
       </c>
       <c r="I18">
-        <v>66946490</v>
+        <v>100366410</v>
       </c>
       <c r="J18">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="K18">
-        <v>0.13</v>
+        <v>-0.67</v>
       </c>
       <c r="L18">
-        <v>0.04</v>
+        <v>-0.21</v>
       </c>
       <c r="M18">
-        <v>2.99</v>
+        <v>4.49</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>301291</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D19">
-        <v>31.47</v>
+        <v>31.22</v>
       </c>
       <c r="E19">
-        <v>31.45</v>
+        <v>31.26</v>
       </c>
       <c r="F19">
-        <v>31.61</v>
+        <v>31.51</v>
       </c>
       <c r="G19">
-        <v>31.14</v>
+        <v>31.12</v>
       </c>
       <c r="H19">
-        <v>31248</v>
+        <v>21325</v>
       </c>
       <c r="I19">
-        <v>98245208</v>
+        <v>66946490</v>
       </c>
       <c r="J19">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="K19">
-        <v>0.61</v>
+        <v>0.13</v>
       </c>
       <c r="L19">
-        <v>0.19</v>
+        <v>0.04</v>
       </c>
       <c r="M19">
-        <v>4.38</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>301291</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D20">
-        <v>31.46</v>
+        <v>31.47</v>
       </c>
       <c r="E20">
-        <v>31.27</v>
+        <v>31.45</v>
       </c>
       <c r="F20">
-        <v>31.51</v>
+        <v>31.61</v>
       </c>
       <c r="G20">
         <v>31.14</v>
       </c>
       <c r="H20">
-        <v>27971</v>
+        <v>31248</v>
       </c>
       <c r="I20">
-        <v>87789922</v>
+        <v>98245208</v>
       </c>
       <c r="J20">
-        <v>1.18</v>
+        <v>1.5</v>
       </c>
       <c r="K20">
-        <v>-0.57</v>
+        <v>0.61</v>
       </c>
       <c r="L20">
-        <v>-0.18</v>
+        <v>0.19</v>
       </c>
       <c r="M20">
-        <v>3.92</v>
+        <v>4.38</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>301291</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D21">
-        <v>31.22</v>
+        <v>31.46</v>
       </c>
       <c r="E21">
-        <v>31.47</v>
+        <v>31.27</v>
       </c>
       <c r="F21">
-        <v>31.47</v>
+        <v>31.51</v>
       </c>
       <c r="G21">
-        <v>31.21</v>
+        <v>31.14</v>
       </c>
       <c r="H21">
-        <v>31167</v>
+        <v>27971</v>
       </c>
       <c r="I21">
-        <v>97888880</v>
+        <v>87789922</v>
       </c>
       <c r="J21">
-        <v>0.83</v>
+        <v>1.18</v>
       </c>
       <c r="K21">
-        <v>0.64</v>
+        <v>-0.57</v>
       </c>
       <c r="L21">
-        <v>0.2</v>
+        <v>-0.18</v>
       </c>
       <c r="M21">
-        <v>4.37</v>
+        <v>3.92</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>301291</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D22">
-        <v>31.76</v>
+        <v>31.22</v>
       </c>
       <c r="E22">
-        <v>32.23</v>
+        <v>31.47</v>
       </c>
       <c r="F22">
-        <v>32.8</v>
+        <v>31.47</v>
       </c>
       <c r="G22">
-        <v>31.48</v>
+        <v>31.21</v>
       </c>
       <c r="H22">
-        <v>74136</v>
+        <v>31167</v>
       </c>
       <c r="I22">
-        <v>239360348</v>
+        <v>97888880</v>
       </c>
       <c r="J22">
-        <v>4.19</v>
+        <v>0.83</v>
       </c>
       <c r="K22">
-        <v>2.41</v>
+        <v>0.64</v>
       </c>
       <c r="L22">
-        <v>0.76</v>
+        <v>0.2</v>
       </c>
       <c r="M22">
-        <v>10.39</v>
+        <v>4.37</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>301291</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D23">
-        <v>31.97</v>
+        <v>31.76</v>
       </c>
       <c r="E23">
-        <v>32.07</v>
+        <v>32.23</v>
       </c>
       <c r="F23">
-        <v>32.19</v>
+        <v>32.8</v>
       </c>
       <c r="G23">
-        <v>31.75</v>
+        <v>31.48</v>
       </c>
       <c r="H23">
-        <v>44489</v>
+        <v>74136</v>
       </c>
       <c r="I23">
-        <v>142458405</v>
+        <v>239360348</v>
       </c>
       <c r="J23">
-        <v>1.37</v>
+        <v>4.19</v>
       </c>
       <c r="K23">
-        <v>-0.5</v>
+        <v>2.41</v>
       </c>
       <c r="L23">
-        <v>-0.16</v>
+        <v>0.76</v>
       </c>
       <c r="M23">
-        <v>6.24</v>
+        <v>10.39</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>301291</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D24">
-        <v>31.89</v>
+        <v>31.97</v>
       </c>
       <c r="E24">
-        <v>31.48</v>
+        <v>32.07</v>
       </c>
       <c r="F24">
-        <v>32.04</v>
+        <v>32.19</v>
       </c>
       <c r="G24">
-        <v>31.42</v>
+        <v>31.75</v>
       </c>
       <c r="H24">
-        <v>39128</v>
+        <v>44489</v>
       </c>
       <c r="I24">
-        <v>124143990</v>
+        <v>142458405</v>
       </c>
       <c r="J24">
-        <v>1.93</v>
+        <v>1.37</v>
       </c>
       <c r="K24">
-        <v>-1.84</v>
+        <v>-0.5</v>
       </c>
       <c r="L24">
-        <v>-0.59</v>
+        <v>-0.16</v>
       </c>
       <c r="M24">
-        <v>5.49</v>
+        <v>6.24</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <v>301291</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D25">
-        <v>31.35</v>
+        <v>31.89</v>
       </c>
       <c r="E25">
-        <v>31.62</v>
+        <v>31.48</v>
       </c>
       <c r="F25">
-        <v>31.69</v>
+        <v>32.04</v>
       </c>
       <c r="G25">
-        <v>31.33</v>
+        <v>31.42</v>
       </c>
       <c r="H25">
-        <v>21178</v>
+        <v>39128</v>
       </c>
       <c r="I25">
-        <v>66812684</v>
+        <v>124143990</v>
       </c>
       <c r="J25">
-        <v>1.14</v>
+        <v>1.93</v>
       </c>
       <c r="K25">
-        <v>0.44</v>
+        <v>-1.84</v>
       </c>
       <c r="L25">
-        <v>0.14</v>
+        <v>-0.59</v>
       </c>
       <c r="M25">
-        <v>2.97</v>
+        <v>5.49</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B26">
+        <v>301291</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D26">
-        <v>31.45</v>
+        <v>31.35</v>
       </c>
       <c r="E26">
-        <v>31.56</v>
+        <v>31.62</v>
       </c>
       <c r="F26">
-        <v>31.88</v>
+        <v>31.69</v>
       </c>
       <c r="G26">
-        <v>31.43</v>
+        <v>31.33</v>
       </c>
       <c r="H26">
-        <v>17880</v>
+        <v>21178</v>
       </c>
       <c r="I26">
-        <v>56728288</v>
+        <v>66812684</v>
       </c>
       <c r="J26">
-        <v>1.42</v>
+        <v>1.14</v>
       </c>
       <c r="K26">
-        <v>-0.19</v>
+        <v>0.44</v>
       </c>
       <c r="L26">
-        <v>-0.06</v>
+        <v>0.14</v>
       </c>
       <c r="M26">
-        <v>2.51</v>
+        <v>2.97</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B27">
+        <v>301291</v>
       </c>
       <c r="C27" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D27">
-        <v>31.5</v>
+        <v>31.45</v>
       </c>
       <c r="E27">
-        <v>31.55</v>
+        <v>31.56</v>
       </c>
       <c r="F27">
-        <v>31.69</v>
+        <v>31.88</v>
       </c>
       <c r="G27">
-        <v>31.4</v>
+        <v>31.43</v>
       </c>
       <c r="H27">
-        <v>26159</v>
+        <v>17880</v>
       </c>
       <c r="I27">
-        <v>82576797</v>
+        <v>56728288</v>
       </c>
       <c r="J27">
-        <v>0.92</v>
+        <v>1.42</v>
       </c>
       <c r="K27">
-        <v>-0.03</v>
+        <v>-0.19</v>
       </c>
       <c r="L27">
-        <v>-0.01</v>
+        <v>-0.06</v>
       </c>
       <c r="M27">
-        <v>3.67</v>
+        <v>2.51</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B28">
+        <v>301291</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D28">
-        <v>31.42</v>
+        <v>31.5</v>
       </c>
       <c r="E28">
-        <v>31.04</v>
+        <v>31.55</v>
       </c>
       <c r="F28">
-        <v>31.5</v>
+        <v>31.69</v>
       </c>
       <c r="G28">
-        <v>30.97</v>
+        <v>31.4</v>
       </c>
       <c r="H28">
-        <v>30272</v>
+        <v>26159</v>
       </c>
       <c r="I28">
-        <v>94610372</v>
+        <v>82576797</v>
       </c>
       <c r="J28">
-        <v>1.68</v>
+        <v>0.92</v>
       </c>
       <c r="K28">
-        <v>-1.62</v>
+        <v>-0.03</v>
       </c>
       <c r="L28">
-        <v>-0.51</v>
+        <v>-0.01</v>
       </c>
       <c r="M28">
-        <v>4.24</v>
+        <v>3.67</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B29">
+        <v>301291</v>
       </c>
       <c r="C29" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D29">
-        <v>31.16</v>
+        <v>31.42</v>
       </c>
       <c r="E29">
-        <v>31.69</v>
+        <v>31.04</v>
       </c>
       <c r="F29">
-        <v>32.01</v>
+        <v>31.5</v>
       </c>
       <c r="G29">
-        <v>31.01</v>
+        <v>30.97</v>
       </c>
       <c r="H29">
-        <v>36079</v>
+        <v>30272</v>
       </c>
       <c r="I29">
-        <v>113676471</v>
+        <v>94610372</v>
       </c>
       <c r="J29">
-        <v>3.22</v>
+        <v>1.68</v>
       </c>
       <c r="K29">
-        <v>2.09</v>
+        <v>-1.62</v>
       </c>
       <c r="L29">
-        <v>0.65</v>
+        <v>-0.51</v>
       </c>
       <c r="M29">
-        <v>5.06</v>
+        <v>4.24</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B30">
+        <v>301291</v>
       </c>
       <c r="C30" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D30">
-        <v>31.52</v>
+        <v>31.16</v>
       </c>
       <c r="E30">
-        <v>31.94</v>
+        <v>31.69</v>
       </c>
       <c r="F30">
-        <v>32.09</v>
+        <v>32.01</v>
       </c>
       <c r="G30">
-        <v>31.45</v>
+        <v>31.01</v>
       </c>
       <c r="H30">
-        <v>50887</v>
+        <v>36079</v>
       </c>
       <c r="I30">
-        <v>162383945</v>
+        <v>113676471</v>
       </c>
       <c r="J30">
-        <v>2.02</v>
+        <v>3.22</v>
       </c>
       <c r="K30">
-        <v>0.79</v>
+        <v>2.09</v>
       </c>
       <c r="L30">
-        <v>0.25</v>
+        <v>0.65</v>
       </c>
       <c r="M30">
-        <v>7.13</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B31">
+        <v>301291</v>
       </c>
       <c r="C31" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D31">
-        <v>31.8</v>
+        <v>31.52</v>
       </c>
       <c r="E31">
-        <v>32.21</v>
+        <v>31.94</v>
       </c>
       <c r="F31">
-        <v>32.61</v>
+        <v>32.09</v>
       </c>
       <c r="G31">
-        <v>31.8</v>
+        <v>31.45</v>
       </c>
       <c r="H31">
-        <v>74483</v>
+        <v>50887</v>
       </c>
       <c r="I31">
-        <v>241618739</v>
+        <v>162383945</v>
       </c>
       <c r="J31">
-        <v>2.54</v>
+        <v>2.02</v>
       </c>
       <c r="K31">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="L31">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="M31">
-        <v>10.44</v>
+        <v>7.13</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B32">
+        <v>301291</v>
       </c>
       <c r="C32" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D32">
-        <v>32.12</v>
+        <v>31.8</v>
       </c>
       <c r="E32">
-        <v>31.72</v>
+        <v>32.21</v>
       </c>
       <c r="F32">
-        <v>32.41</v>
+        <v>32.61</v>
       </c>
       <c r="G32">
-        <v>31.62</v>
+        <v>31.8</v>
       </c>
       <c r="H32">
-        <v>48202</v>
+        <v>74483</v>
       </c>
       <c r="I32">
-        <v>154045140</v>
+        <v>241618739</v>
       </c>
       <c r="J32">
-        <v>2.45</v>
+        <v>2.54</v>
       </c>
       <c r="K32">
-        <v>-1.52</v>
+        <v>0.85</v>
       </c>
       <c r="L32">
-        <v>-0.49</v>
+        <v>0.27</v>
       </c>
       <c r="M32">
-        <v>6.76</v>
+        <v>10.44</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B33">
+        <v>301291</v>
       </c>
       <c r="C33" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D33">
-        <v>31.44</v>
+        <v>32.12</v>
       </c>
       <c r="E33">
-        <v>32.14</v>
+        <v>31.72</v>
       </c>
       <c r="F33">
-        <v>32.14</v>
+        <v>32.41</v>
       </c>
       <c r="G33">
-        <v>31.09</v>
+        <v>31.62</v>
       </c>
       <c r="H33">
-        <v>41799</v>
+        <v>48202</v>
       </c>
       <c r="I33">
-        <v>133237730</v>
+        <v>154045140</v>
       </c>
       <c r="J33">
-        <v>3.31</v>
+        <v>2.45</v>
       </c>
       <c r="K33">
-        <v>1.32</v>
+        <v>-1.52</v>
       </c>
       <c r="L33">
-        <v>0.42</v>
+        <v>-0.49</v>
       </c>
       <c r="M33">
-        <v>5.86</v>
+        <v>6.76</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B34">
+        <v>301291</v>
       </c>
       <c r="C34" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D34">
-        <v>32.01</v>
+        <v>31.44</v>
       </c>
       <c r="E34">
-        <v>31.73</v>
+        <v>32.14</v>
       </c>
       <c r="F34">
-        <v>32.11</v>
+        <v>32.14</v>
       </c>
       <c r="G34">
-        <v>31.46</v>
+        <v>31.09</v>
       </c>
       <c r="H34">
-        <v>32391</v>
+        <v>41799</v>
       </c>
       <c r="I34">
-        <v>103208424</v>
+        <v>133237730</v>
       </c>
       <c r="J34">
-        <v>2.02</v>
+        <v>3.31</v>
       </c>
       <c r="K34">
-        <v>-1.28</v>
+        <v>1.32</v>
       </c>
       <c r="L34">
-        <v>-0.41</v>
+        <v>0.42</v>
       </c>
       <c r="M34">
-        <v>4.54</v>
+        <v>5.86</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B35">
+        <v>301291</v>
       </c>
       <c r="C35" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D35">
-        <v>31.63</v>
+        <v>32.01</v>
       </c>
       <c r="E35">
-        <v>31.79</v>
+        <v>31.73</v>
       </c>
       <c r="F35">
-        <v>32.4</v>
+        <v>32.11</v>
       </c>
       <c r="G35">
-        <v>31.56</v>
+        <v>31.46</v>
       </c>
       <c r="H35">
-        <v>36015</v>
+        <v>32391</v>
       </c>
       <c r="I35">
-        <v>115576859</v>
+        <v>103208424</v>
       </c>
       <c r="J35">
-        <v>2.65</v>
+        <v>2.02</v>
       </c>
       <c r="K35">
-        <v>0.19</v>
+        <v>-1.28</v>
       </c>
       <c r="L35">
-        <v>0.06</v>
+        <v>-0.41</v>
       </c>
       <c r="M35">
-        <v>5.05</v>
+        <v>4.54</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B36">
+        <v>301291</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D36">
-        <v>31.48</v>
+        <v>31.63</v>
       </c>
       <c r="E36">
-        <v>31.85</v>
+        <v>31.79</v>
       </c>
       <c r="F36">
-        <v>31.86</v>
+        <v>32.4</v>
       </c>
       <c r="G36">
-        <v>30.98</v>
+        <v>31.56</v>
       </c>
       <c r="H36">
-        <v>42347</v>
+        <v>36015</v>
       </c>
       <c r="I36">
-        <v>133084483</v>
+        <v>115576859</v>
       </c>
       <c r="J36">
-        <v>2.77</v>
+        <v>2.65</v>
       </c>
       <c r="K36">
         <v>0.19</v>
@@ -2150,2056 +2201,2097 @@
         <v>0.06</v>
       </c>
       <c r="M36">
-        <v>5.94</v>
+        <v>5.05</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B37">
+        <v>301291</v>
       </c>
       <c r="C37" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D37">
-        <v>31.72</v>
+        <v>31.48</v>
       </c>
       <c r="E37">
-        <v>32.39</v>
+        <v>31.85</v>
       </c>
       <c r="F37">
-        <v>32.87</v>
+        <v>31.86</v>
       </c>
       <c r="G37">
-        <v>31.64</v>
+        <v>30.98</v>
       </c>
       <c r="H37">
-        <v>96223</v>
+        <v>42347</v>
       </c>
       <c r="I37">
-        <v>312960260</v>
+        <v>133084483</v>
       </c>
       <c r="J37">
-        <v>3.86</v>
+        <v>2.77</v>
       </c>
       <c r="K37">
-        <v>1.7</v>
+        <v>0.19</v>
       </c>
       <c r="L37">
-        <v>0.54</v>
+        <v>0.06</v>
       </c>
       <c r="M37">
-        <v>13.49</v>
+        <v>5.94</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B38">
+        <v>301291</v>
       </c>
       <c r="C38" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D38">
-        <v>32.23</v>
+        <v>31.72</v>
       </c>
       <c r="E38">
-        <v>32.33</v>
+        <v>32.39</v>
       </c>
       <c r="F38">
-        <v>32.7</v>
+        <v>32.87</v>
       </c>
       <c r="G38">
-        <v>32.03</v>
+        <v>31.64</v>
       </c>
       <c r="H38">
-        <v>51661</v>
+        <v>96223</v>
       </c>
       <c r="I38">
-        <v>167335822</v>
+        <v>312960260</v>
       </c>
       <c r="J38">
-        <v>2.07</v>
+        <v>3.86</v>
       </c>
       <c r="K38">
-        <v>-0.19</v>
+        <v>1.7</v>
       </c>
       <c r="L38">
-        <v>-0.06</v>
+        <v>0.54</v>
       </c>
       <c r="M38">
-        <v>7.24</v>
+        <v>13.49</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" t="s">
-        <v>13</v>
-      </c>
-      <c r="B39" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B39">
+        <v>301291</v>
       </c>
       <c r="C39" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D39">
-        <v>32.26</v>
+        <v>32.23</v>
       </c>
       <c r="E39">
-        <v>31.52</v>
+        <v>32.33</v>
       </c>
       <c r="F39">
-        <v>32.39</v>
+        <v>32.7</v>
       </c>
       <c r="G39">
-        <v>31.02</v>
+        <v>32.03</v>
       </c>
       <c r="H39">
-        <v>61404</v>
+        <v>51661</v>
       </c>
       <c r="I39">
-        <v>193938678</v>
+        <v>167335822</v>
       </c>
       <c r="J39">
-        <v>4.24</v>
+        <v>2.07</v>
       </c>
       <c r="K39">
-        <v>-2.51</v>
+        <v>-0.19</v>
       </c>
       <c r="L39">
-        <v>-0.8100000000000001</v>
+        <v>-0.06</v>
       </c>
       <c r="M39">
-        <v>8.609999999999999</v>
+        <v>7.24</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" t="s">
-        <v>13</v>
-      </c>
-      <c r="B40" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B40">
+        <v>301291</v>
       </c>
       <c r="C40" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D40">
-        <v>31.17</v>
+        <v>32.26</v>
       </c>
       <c r="E40">
-        <v>30.93</v>
+        <v>31.52</v>
       </c>
       <c r="F40">
-        <v>31.41</v>
+        <v>32.39</v>
       </c>
       <c r="G40">
-        <v>30.93</v>
+        <v>31.02</v>
       </c>
       <c r="H40">
-        <v>31619</v>
+        <v>61404</v>
       </c>
       <c r="I40">
-        <v>98764344</v>
+        <v>193938678</v>
       </c>
       <c r="J40">
-        <v>1.52</v>
+        <v>4.24</v>
       </c>
       <c r="K40">
-        <v>-1.87</v>
+        <v>-2.51</v>
       </c>
       <c r="L40">
-        <v>-0.59</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="M40">
-        <v>4.43</v>
+        <v>8.609999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" t="s">
-        <v>13</v>
-      </c>
-      <c r="B41" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B41">
+        <v>301291</v>
       </c>
       <c r="C41" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D41">
-        <v>31.08</v>
+        <v>31.17</v>
       </c>
       <c r="E41">
-        <v>29.72</v>
+        <v>30.93</v>
       </c>
       <c r="F41">
-        <v>31.09</v>
+        <v>31.41</v>
       </c>
       <c r="G41">
-        <v>29.23</v>
+        <v>30.93</v>
       </c>
       <c r="H41">
-        <v>51683</v>
+        <v>31619</v>
       </c>
       <c r="I41">
-        <v>155245807</v>
+        <v>98764344</v>
       </c>
       <c r="J41">
-        <v>6.01</v>
+        <v>1.52</v>
       </c>
       <c r="K41">
-        <v>-3.91</v>
+        <v>-1.87</v>
       </c>
       <c r="L41">
-        <v>-1.21</v>
+        <v>-0.59</v>
       </c>
       <c r="M41">
-        <v>7.25</v>
+        <v>4.43</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" t="s">
-        <v>13</v>
-      </c>
-      <c r="B42" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B42">
+        <v>301291</v>
       </c>
       <c r="C42" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D42">
-        <v>29.47</v>
+        <v>31.08</v>
       </c>
       <c r="E42">
-        <v>28.18</v>
+        <v>29.72</v>
       </c>
       <c r="F42">
-        <v>29.8</v>
+        <v>31.09</v>
       </c>
       <c r="G42">
-        <v>28.05</v>
+        <v>29.23</v>
       </c>
       <c r="H42">
-        <v>48242</v>
+        <v>51683</v>
       </c>
       <c r="I42">
-        <v>139254697</v>
+        <v>155245807</v>
       </c>
       <c r="J42">
-        <v>5.89</v>
+        <v>6.01</v>
       </c>
       <c r="K42">
-        <v>-5.18</v>
+        <v>-3.91</v>
       </c>
       <c r="L42">
-        <v>-1.54</v>
+        <v>-1.21</v>
       </c>
       <c r="M42">
-        <v>6.76</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" t="s">
-        <v>13</v>
-      </c>
-      <c r="B43" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B43">
+        <v>301291</v>
       </c>
       <c r="C43" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D43">
-        <v>30.31</v>
+        <v>29.47</v>
       </c>
       <c r="E43">
-        <v>28.68</v>
+        <v>28.18</v>
       </c>
       <c r="F43">
-        <v>30.32</v>
+        <v>29.8</v>
       </c>
       <c r="G43">
-        <v>28.43</v>
+        <v>28.05</v>
       </c>
       <c r="H43">
-        <v>38337</v>
+        <v>48242</v>
       </c>
       <c r="I43">
-        <v>113081654</v>
+        <v>139254697</v>
       </c>
       <c r="J43">
-        <v>6.71</v>
+        <v>5.89</v>
       </c>
       <c r="K43">
-        <v>1.77</v>
+        <v>-5.18</v>
       </c>
       <c r="L43">
-        <v>0.5</v>
+        <v>-1.54</v>
       </c>
       <c r="M43">
-        <v>5.37</v>
+        <v>6.76</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" t="s">
-        <v>13</v>
-      </c>
-      <c r="B44" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B44">
+        <v>301291</v>
       </c>
       <c r="C44" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D44">
-        <v>28.45</v>
+        <v>30.31</v>
       </c>
       <c r="E44">
-        <v>30.24</v>
+        <v>28.68</v>
       </c>
       <c r="F44">
-        <v>30.3</v>
+        <v>30.32</v>
       </c>
       <c r="G44">
-        <v>28.45</v>
+        <v>28.43</v>
       </c>
       <c r="H44">
-        <v>50192</v>
+        <v>38337</v>
       </c>
       <c r="I44">
-        <v>150067171</v>
+        <v>113081654</v>
       </c>
       <c r="J44">
-        <v>6.45</v>
+        <v>6.71</v>
       </c>
       <c r="K44">
-        <v>5.44</v>
+        <v>1.77</v>
       </c>
       <c r="L44">
-        <v>1.56</v>
+        <v>0.5</v>
       </c>
       <c r="M44">
-        <v>7.04</v>
+        <v>5.37</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" t="s">
-        <v>13</v>
-      </c>
-      <c r="B45" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B45">
+        <v>301291</v>
       </c>
       <c r="C45" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D45">
-        <v>30.37</v>
+        <v>28.45</v>
       </c>
       <c r="E45">
-        <v>30.5</v>
+        <v>30.24</v>
       </c>
       <c r="F45">
-        <v>31.01</v>
+        <v>30.3</v>
       </c>
       <c r="G45">
-        <v>29.82</v>
+        <v>28.45</v>
       </c>
       <c r="H45">
-        <v>47905</v>
+        <v>50192</v>
       </c>
       <c r="I45">
-        <v>145960561</v>
+        <v>150067171</v>
       </c>
       <c r="J45">
-        <v>3.94</v>
+        <v>6.45</v>
       </c>
       <c r="K45">
-        <v>0.86</v>
+        <v>5.44</v>
       </c>
       <c r="L45">
-        <v>0.26</v>
+        <v>1.56</v>
       </c>
       <c r="M45">
-        <v>6.72</v>
+        <v>7.04</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" t="s">
-        <v>13</v>
-      </c>
-      <c r="B46" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B46">
+        <v>301291</v>
       </c>
       <c r="C46" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D46">
-        <v>30.22</v>
+        <v>30.37</v>
       </c>
       <c r="E46">
-        <v>30.34</v>
+        <v>30.5</v>
       </c>
       <c r="F46">
-        <v>30.68</v>
+        <v>31.01</v>
       </c>
       <c r="G46">
-        <v>30.05</v>
+        <v>29.82</v>
       </c>
       <c r="H46">
-        <v>22090</v>
+        <v>47905</v>
       </c>
       <c r="I46">
-        <v>67288123</v>
+        <v>145960561</v>
       </c>
       <c r="J46">
-        <v>2.07</v>
+        <v>3.94</v>
       </c>
       <c r="K46">
-        <v>-0.52</v>
+        <v>0.86</v>
       </c>
       <c r="L46">
-        <v>-0.16</v>
+        <v>0.26</v>
       </c>
       <c r="M46">
-        <v>3.1</v>
+        <v>6.72</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" t="s">
-        <v>13</v>
-      </c>
-      <c r="B47" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B47">
+        <v>301291</v>
       </c>
       <c r="C47" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D47">
-        <v>30.32</v>
+        <v>30.22</v>
       </c>
       <c r="E47">
-        <v>30.36</v>
+        <v>30.34</v>
       </c>
       <c r="F47">
-        <v>30.48</v>
+        <v>30.68</v>
       </c>
       <c r="G47">
-        <v>30.12</v>
+        <v>30.05</v>
       </c>
       <c r="H47">
-        <v>17143</v>
+        <v>22090</v>
       </c>
       <c r="I47">
-        <v>52038590</v>
+        <v>67288123</v>
       </c>
       <c r="J47">
-        <v>1.19</v>
+        <v>2.07</v>
       </c>
       <c r="K47">
-        <v>0.07000000000000001</v>
+        <v>-0.52</v>
       </c>
       <c r="L47">
-        <v>0.02</v>
+        <v>-0.16</v>
       </c>
       <c r="M47">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" t="s">
-        <v>13</v>
-      </c>
-      <c r="B48" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B48">
+        <v>301291</v>
       </c>
       <c r="C48" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D48">
-        <v>30.61</v>
+        <v>30.32</v>
       </c>
       <c r="E48">
-        <v>30.49</v>
+        <v>30.36</v>
       </c>
       <c r="F48">
-        <v>30.61</v>
+        <v>30.48</v>
       </c>
       <c r="G48">
-        <v>30.03</v>
+        <v>30.12</v>
       </c>
       <c r="H48">
-        <v>19270</v>
+        <v>17143</v>
       </c>
       <c r="I48">
-        <v>58609170</v>
+        <v>52038590</v>
       </c>
       <c r="J48">
-        <v>1.91</v>
+        <v>1.19</v>
       </c>
       <c r="K48">
-        <v>0.43</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="L48">
-        <v>0.13</v>
+        <v>0.02</v>
       </c>
       <c r="M48">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" t="s">
-        <v>13</v>
-      </c>
-      <c r="B49" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B49">
+        <v>301291</v>
       </c>
       <c r="C49" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D49">
-        <v>30.45</v>
+        <v>30.61</v>
       </c>
       <c r="E49">
-        <v>30.45</v>
+        <v>30.49</v>
       </c>
       <c r="F49">
-        <v>30.5</v>
+        <v>30.61</v>
       </c>
       <c r="G49">
-        <v>30.14</v>
+        <v>30.03</v>
       </c>
       <c r="H49">
-        <v>17533</v>
+        <v>19270</v>
       </c>
       <c r="I49">
-        <v>53306323</v>
+        <v>58609170</v>
       </c>
       <c r="J49">
-        <v>1.18</v>
+        <v>1.91</v>
       </c>
       <c r="K49">
-        <v>-0.13</v>
+        <v>0.43</v>
       </c>
       <c r="L49">
-        <v>-0.04</v>
+        <v>0.13</v>
       </c>
       <c r="M49">
-        <v>2.46</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" t="s">
-        <v>13</v>
-      </c>
-      <c r="B50" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B50">
+        <v>301291</v>
       </c>
       <c r="C50" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D50">
-        <v>30.24</v>
+        <v>30.45</v>
       </c>
       <c r="E50">
-        <v>30.34</v>
+        <v>30.45</v>
       </c>
       <c r="F50">
-        <v>30.39</v>
+        <v>30.5</v>
       </c>
       <c r="G50">
-        <v>30.04</v>
+        <v>30.14</v>
       </c>
       <c r="H50">
-        <v>14472</v>
+        <v>17533</v>
       </c>
       <c r="I50">
-        <v>43882455</v>
+        <v>53306323</v>
       </c>
       <c r="J50">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="K50">
-        <v>-0.36</v>
+        <v>-0.13</v>
       </c>
       <c r="L50">
-        <v>-0.11</v>
+        <v>-0.04</v>
       </c>
       <c r="M50">
-        <v>2.03</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" t="s">
-        <v>13</v>
-      </c>
-      <c r="B51" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B51">
+        <v>301291</v>
       </c>
       <c r="C51" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D51">
-        <v>30.35</v>
+        <v>30.24</v>
       </c>
       <c r="E51">
-        <v>29.13</v>
+        <v>30.34</v>
       </c>
       <c r="F51">
-        <v>30.42</v>
+        <v>30.39</v>
       </c>
       <c r="G51">
-        <v>29.13</v>
+        <v>30.04</v>
       </c>
       <c r="H51">
-        <v>38149</v>
+        <v>14472</v>
       </c>
       <c r="I51">
-        <v>113111374</v>
+        <v>43882455</v>
       </c>
       <c r="J51">
-        <v>4.25</v>
+        <v>1.15</v>
       </c>
       <c r="K51">
-        <v>-3.99</v>
+        <v>-0.36</v>
       </c>
       <c r="L51">
-        <v>-1.21</v>
+        <v>-0.11</v>
       </c>
       <c r="M51">
-        <v>5.35</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" t="s">
-        <v>13</v>
-      </c>
-      <c r="B52" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B52">
+        <v>301291</v>
       </c>
       <c r="C52" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D52">
-        <v>29.15</v>
+        <v>30.35</v>
       </c>
       <c r="E52">
         <v>29.13</v>
       </c>
       <c r="F52">
-        <v>29.37</v>
+        <v>30.42</v>
       </c>
       <c r="G52">
-        <v>28.93</v>
+        <v>29.13</v>
       </c>
       <c r="H52">
-        <v>13379</v>
+        <v>38149</v>
       </c>
       <c r="I52">
-        <v>39041129</v>
+        <v>113111374</v>
       </c>
       <c r="J52">
-        <v>1.51</v>
+        <v>4.25</v>
       </c>
       <c r="K52">
-        <v>0</v>
+        <v>-3.99</v>
       </c>
       <c r="L52">
-        <v>0</v>
+        <v>-1.21</v>
       </c>
       <c r="M52">
-        <v>1.88</v>
+        <v>5.35</v>
       </c>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" t="s">
-        <v>13</v>
-      </c>
-      <c r="B53" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B53">
+        <v>301291</v>
       </c>
       <c r="C53" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D53">
-        <v>29.02</v>
+        <v>29.15</v>
       </c>
       <c r="E53">
-        <v>29.27</v>
+        <v>29.13</v>
       </c>
       <c r="F53">
-        <v>29.4</v>
+        <v>29.37</v>
       </c>
       <c r="G53">
-        <v>29</v>
+        <v>28.93</v>
       </c>
       <c r="H53">
-        <v>15395</v>
+        <v>13379</v>
       </c>
       <c r="I53">
-        <v>45073381</v>
+        <v>39041129</v>
       </c>
       <c r="J53">
-        <v>1.37</v>
+        <v>1.51</v>
       </c>
       <c r="K53">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="L53">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="M53">
-        <v>2.16</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" t="s">
-        <v>13</v>
-      </c>
-      <c r="B54" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B54">
+        <v>301291</v>
       </c>
       <c r="C54" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D54">
-        <v>29.15</v>
+        <v>29.02</v>
       </c>
       <c r="E54">
-        <v>29.29</v>
+        <v>29.27</v>
       </c>
       <c r="F54">
-        <v>29.37</v>
+        <v>29.4</v>
       </c>
       <c r="G54">
-        <v>29.07</v>
+        <v>29</v>
       </c>
       <c r="H54">
-        <v>12129</v>
+        <v>15395</v>
       </c>
       <c r="I54">
-        <v>35535404</v>
+        <v>45073381</v>
       </c>
       <c r="J54">
-        <v>1.02</v>
+        <v>1.37</v>
       </c>
       <c r="K54">
-        <v>0.07000000000000001</v>
+        <v>0.48</v>
       </c>
       <c r="L54">
-        <v>0.02</v>
+        <v>0.14</v>
       </c>
       <c r="M54">
-        <v>1.7</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" t="s">
-        <v>13</v>
-      </c>
-      <c r="B55" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B55">
+        <v>301291</v>
       </c>
       <c r="C55" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D55">
-        <v>29.16</v>
+        <v>29.15</v>
       </c>
       <c r="E55">
-        <v>28.94</v>
+        <v>29.29</v>
       </c>
       <c r="F55">
-        <v>29.19</v>
+        <v>29.37</v>
       </c>
       <c r="G55">
-        <v>28.73</v>
+        <v>29.07</v>
       </c>
       <c r="H55">
-        <v>15304</v>
+        <v>12129</v>
       </c>
       <c r="I55">
-        <v>44367838</v>
+        <v>35535404</v>
       </c>
       <c r="J55">
-        <v>1.57</v>
+        <v>1.02</v>
       </c>
       <c r="K55">
-        <v>-1.19</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="L55">
-        <v>-0.35</v>
+        <v>0.02</v>
       </c>
       <c r="M55">
-        <v>2.15</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" t="s">
-        <v>13</v>
-      </c>
-      <c r="B56" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B56">
+        <v>301291</v>
       </c>
       <c r="C56" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D56">
-        <v>28.99</v>
+        <v>29.16</v>
       </c>
       <c r="E56">
-        <v>28.43</v>
+        <v>28.94</v>
       </c>
       <c r="F56">
-        <v>28.99</v>
+        <v>29.19</v>
       </c>
       <c r="G56">
-        <v>28.27</v>
+        <v>28.73</v>
       </c>
       <c r="H56">
-        <v>15509</v>
+        <v>15304</v>
       </c>
       <c r="I56">
-        <v>44414954</v>
+        <v>44367838</v>
       </c>
       <c r="J56">
-        <v>2.49</v>
+        <v>1.57</v>
       </c>
       <c r="K56">
-        <v>-1.76</v>
+        <v>-1.19</v>
       </c>
       <c r="L56">
-        <v>-0.51</v>
+        <v>-0.35</v>
       </c>
       <c r="M56">
-        <v>2.17</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" t="s">
-        <v>13</v>
-      </c>
-      <c r="B57" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B57">
+        <v>301291</v>
       </c>
       <c r="C57" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D57">
-        <v>28.51</v>
+        <v>28.99</v>
       </c>
       <c r="E57">
-        <v>28.47</v>
+        <v>28.43</v>
       </c>
       <c r="F57">
-        <v>28.67</v>
+        <v>28.99</v>
       </c>
       <c r="G57">
-        <v>28.24</v>
+        <v>28.27</v>
       </c>
       <c r="H57">
-        <v>12205</v>
+        <v>15509</v>
       </c>
       <c r="I57">
-        <v>34853888</v>
+        <v>44414954</v>
       </c>
       <c r="J57">
-        <v>1.51</v>
+        <v>2.49</v>
       </c>
       <c r="K57">
-        <v>0.14</v>
+        <v>-1.76</v>
       </c>
       <c r="L57">
-        <v>0.04</v>
+        <v>-0.51</v>
       </c>
       <c r="M57">
-        <v>1.71</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" t="s">
-        <v>13</v>
-      </c>
-      <c r="B58" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B58">
+        <v>301291</v>
       </c>
       <c r="C58" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D58">
-        <v>28.44</v>
+        <v>28.51</v>
       </c>
       <c r="E58">
-        <v>28.69</v>
+        <v>28.47</v>
       </c>
       <c r="F58">
-        <v>28.89</v>
+        <v>28.67</v>
       </c>
       <c r="G58">
-        <v>28.25</v>
+        <v>28.24</v>
       </c>
       <c r="H58">
-        <v>12235</v>
+        <v>12205</v>
       </c>
       <c r="I58">
-        <v>35205422</v>
+        <v>34853888</v>
       </c>
       <c r="J58">
-        <v>2.25</v>
+        <v>1.51</v>
       </c>
       <c r="K58">
-        <v>0.77</v>
+        <v>0.14</v>
       </c>
       <c r="L58">
-        <v>0.22</v>
+        <v>0.04</v>
       </c>
       <c r="M58">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" t="s">
-        <v>13</v>
-      </c>
-      <c r="B59" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B59">
+        <v>301291</v>
       </c>
       <c r="C59" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D59">
-        <v>28.62</v>
+        <v>28.44</v>
       </c>
       <c r="E59">
-        <v>28.4</v>
+        <v>28.69</v>
       </c>
       <c r="F59">
-        <v>28.78</v>
+        <v>28.89</v>
       </c>
       <c r="G59">
-        <v>28.26</v>
+        <v>28.25</v>
       </c>
       <c r="H59">
-        <v>12695</v>
+        <v>12235</v>
       </c>
       <c r="I59">
-        <v>36130482</v>
+        <v>35205422</v>
       </c>
       <c r="J59">
-        <v>1.81</v>
+        <v>2.25</v>
       </c>
       <c r="K59">
-        <v>-1.01</v>
+        <v>0.77</v>
       </c>
       <c r="L59">
-        <v>-0.29</v>
+        <v>0.22</v>
       </c>
       <c r="M59">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" t="s">
-        <v>13</v>
-      </c>
-      <c r="B60" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B60">
+        <v>301291</v>
       </c>
       <c r="C60" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D60">
-        <v>28.19</v>
+        <v>28.62</v>
       </c>
       <c r="E60">
-        <v>28.24</v>
+        <v>28.4</v>
       </c>
       <c r="F60">
-        <v>28.57</v>
+        <v>28.78</v>
       </c>
       <c r="G60">
-        <v>28.19</v>
+        <v>28.26</v>
       </c>
       <c r="H60">
-        <v>7610</v>
+        <v>12695</v>
       </c>
       <c r="I60">
-        <v>21632622</v>
+        <v>36130482</v>
       </c>
       <c r="J60">
-        <v>1.34</v>
+        <v>1.81</v>
       </c>
       <c r="K60">
-        <v>-0.5600000000000001</v>
+        <v>-1.01</v>
       </c>
       <c r="L60">
-        <v>-0.16</v>
+        <v>-0.29</v>
       </c>
       <c r="M60">
-        <v>1.07</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" t="s">
-        <v>13</v>
-      </c>
-      <c r="B61" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B61">
+        <v>301291</v>
       </c>
       <c r="C61" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D61">
-        <v>28.05</v>
+        <v>28.19</v>
       </c>
       <c r="E61">
-        <v>27.96</v>
+        <v>28.24</v>
       </c>
       <c r="F61">
-        <v>28.32</v>
+        <v>28.57</v>
       </c>
       <c r="G61">
-        <v>27.95</v>
+        <v>28.19</v>
       </c>
       <c r="H61">
-        <v>11325</v>
+        <v>7610</v>
       </c>
       <c r="I61">
-        <v>31902876</v>
+        <v>21632622</v>
       </c>
       <c r="J61">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="K61">
-        <v>-0.99</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="L61">
-        <v>-0.28</v>
+        <v>-0.16</v>
       </c>
       <c r="M61">
-        <v>1.59</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" t="s">
-        <v>13</v>
-      </c>
-      <c r="B62" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B62">
+        <v>301291</v>
       </c>
       <c r="C62" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D62">
-        <v>27.69</v>
+        <v>28.05</v>
       </c>
       <c r="E62">
-        <v>28.44</v>
+        <v>27.96</v>
       </c>
       <c r="F62">
-        <v>28.47</v>
+        <v>28.32</v>
       </c>
       <c r="G62">
-        <v>27.69</v>
+        <v>27.95</v>
       </c>
       <c r="H62">
-        <v>15143</v>
+        <v>11325</v>
       </c>
       <c r="I62">
-        <v>42784376</v>
+        <v>31902876</v>
       </c>
       <c r="J62">
-        <v>2.79</v>
+        <v>1.31</v>
       </c>
       <c r="K62">
-        <v>1.72</v>
+        <v>-0.99</v>
       </c>
       <c r="L62">
-        <v>0.48</v>
+        <v>-0.28</v>
       </c>
       <c r="M62">
-        <v>2.12</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" t="s">
-        <v>13</v>
-      </c>
-      <c r="B63" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B63">
+        <v>301291</v>
       </c>
       <c r="C63" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D63">
-        <v>28.36</v>
+        <v>27.69</v>
       </c>
       <c r="E63">
-        <v>28.34</v>
+        <v>28.44</v>
       </c>
       <c r="F63">
-        <v>28.54</v>
+        <v>28.47</v>
       </c>
       <c r="G63">
-        <v>28.12</v>
+        <v>27.69</v>
       </c>
       <c r="H63">
-        <v>9483</v>
+        <v>15143</v>
       </c>
       <c r="I63">
-        <v>26945503</v>
+        <v>42784376</v>
       </c>
       <c r="J63">
-        <v>1.48</v>
+        <v>2.79</v>
       </c>
       <c r="K63">
-        <v>-0.35</v>
+        <v>1.72</v>
       </c>
       <c r="L63">
-        <v>-0.1</v>
+        <v>0.48</v>
       </c>
       <c r="M63">
-        <v>1.33</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" t="s">
-        <v>13</v>
-      </c>
-      <c r="B64" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B64">
+        <v>301291</v>
       </c>
       <c r="C64" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D64">
-        <v>28.44</v>
+        <v>28.36</v>
       </c>
       <c r="E64">
-        <v>28.46</v>
+        <v>28.34</v>
       </c>
       <c r="F64">
-        <v>28.55</v>
+        <v>28.54</v>
       </c>
       <c r="G64">
-        <v>28.29</v>
+        <v>28.12</v>
       </c>
       <c r="H64">
-        <v>13775</v>
+        <v>9483</v>
       </c>
       <c r="I64">
-        <v>39310585</v>
+        <v>26945503</v>
       </c>
       <c r="J64">
-        <v>0.92</v>
+        <v>1.48</v>
       </c>
       <c r="K64">
-        <v>0.42</v>
+        <v>-0.35</v>
       </c>
       <c r="L64">
-        <v>0.12</v>
+        <v>-0.1</v>
       </c>
       <c r="M64">
-        <v>1.93</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" t="s">
-        <v>13</v>
-      </c>
-      <c r="B65" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B65">
+        <v>301291</v>
       </c>
       <c r="C65" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D65">
-        <v>28.29</v>
+        <v>28.44</v>
       </c>
       <c r="E65">
         <v>28.46</v>
       </c>
       <c r="F65">
-        <v>28.86</v>
+        <v>28.55</v>
       </c>
       <c r="G65">
-        <v>28.2</v>
+        <v>28.29</v>
       </c>
       <c r="H65">
-        <v>16753</v>
+        <v>13775</v>
       </c>
       <c r="I65">
-        <v>48067005</v>
+        <v>39310585</v>
       </c>
       <c r="J65">
-        <v>2.32</v>
+        <v>0.92</v>
       </c>
       <c r="K65">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="L65">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="M65">
-        <v>2.35</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" t="s">
-        <v>13</v>
-      </c>
-      <c r="B66" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B66">
+        <v>301291</v>
       </c>
       <c r="C66" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D66">
-        <v>28.38</v>
+        <v>28.29</v>
       </c>
       <c r="E66">
-        <v>28.56</v>
+        <v>28.46</v>
       </c>
       <c r="F66">
-        <v>28.8</v>
+        <v>28.86</v>
       </c>
       <c r="G66">
-        <v>28.38</v>
+        <v>28.2</v>
       </c>
       <c r="H66">
-        <v>14554</v>
+        <v>16753</v>
       </c>
       <c r="I66">
-        <v>41787844</v>
+        <v>48067005</v>
       </c>
       <c r="J66">
-        <v>1.48</v>
+        <v>2.32</v>
       </c>
       <c r="K66">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="L66">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M66">
-        <v>2.04</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" t="s">
-        <v>13</v>
-      </c>
-      <c r="B67" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B67">
+        <v>301291</v>
       </c>
       <c r="C67" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="D67">
-        <v>28.52</v>
+        <v>28.38</v>
       </c>
       <c r="E67">
-        <v>28.79</v>
+        <v>28.56</v>
       </c>
       <c r="F67">
-        <v>28.84</v>
+        <v>28.8</v>
       </c>
       <c r="G67">
-        <v>28.43</v>
+        <v>28.38</v>
       </c>
       <c r="H67">
-        <v>15037</v>
+        <v>14554</v>
       </c>
       <c r="I67">
-        <v>43257434</v>
+        <v>41787844</v>
       </c>
       <c r="J67">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="K67">
-        <v>0.8100000000000001</v>
+        <v>0.35</v>
       </c>
       <c r="L67">
-        <v>0.23</v>
+        <v>0.1</v>
       </c>
       <c r="M67">
-        <v>2.11</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="68" spans="1:13">
       <c r="A68" t="s">
-        <v>13</v>
-      </c>
-      <c r="B68" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B68">
+        <v>301291</v>
       </c>
       <c r="C68" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D68">
+        <v>28.52</v>
+      </c>
+      <c r="E68">
         <v>28.79</v>
       </c>
-      <c r="E68">
-        <v>28.31</v>
-      </c>
       <c r="F68">
-        <v>28.81</v>
+        <v>28.84</v>
       </c>
       <c r="G68">
-        <v>28.27</v>
+        <v>28.43</v>
       </c>
       <c r="H68">
-        <v>14223</v>
+        <v>15037</v>
       </c>
       <c r="I68">
-        <v>40616007</v>
+        <v>43257434</v>
       </c>
       <c r="J68">
-        <v>1.88</v>
+        <v>1.44</v>
       </c>
       <c r="K68">
-        <v>-1.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="L68">
-        <v>-0.48</v>
+        <v>0.23</v>
       </c>
       <c r="M68">
-        <v>1.99</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" t="s">
-        <v>13</v>
-      </c>
-      <c r="B69" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B69">
+        <v>301291</v>
       </c>
       <c r="C69" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D69">
-        <v>28.47</v>
+        <v>28.79</v>
       </c>
       <c r="E69">
-        <v>28.56</v>
+        <v>28.31</v>
       </c>
       <c r="F69">
-        <v>28.7</v>
+        <v>28.81</v>
       </c>
       <c r="G69">
-        <v>28.2</v>
+        <v>28.27</v>
       </c>
       <c r="H69">
-        <v>12428</v>
+        <v>14223</v>
       </c>
       <c r="I69">
-        <v>35503150</v>
+        <v>40616007</v>
       </c>
       <c r="J69">
-        <v>1.77</v>
+        <v>1.88</v>
       </c>
       <c r="K69">
-        <v>0.88</v>
+        <v>-1.67</v>
       </c>
       <c r="L69">
-        <v>0.25</v>
+        <v>-0.48</v>
       </c>
       <c r="M69">
-        <v>1.74</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" t="s">
-        <v>13</v>
-      </c>
-      <c r="B70" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B70">
+        <v>301291</v>
       </c>
       <c r="C70" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D70">
+        <v>28.47</v>
+      </c>
+      <c r="E70">
         <v>28.56</v>
       </c>
-      <c r="E70">
-        <v>28.85</v>
-      </c>
       <c r="F70">
-        <v>28.96</v>
+        <v>28.7</v>
       </c>
       <c r="G70">
-        <v>28.37</v>
+        <v>28.2</v>
       </c>
       <c r="H70">
-        <v>16474</v>
+        <v>12428</v>
       </c>
       <c r="I70">
-        <v>47449725</v>
+        <v>35503150</v>
       </c>
       <c r="J70">
-        <v>2.07</v>
+        <v>1.77</v>
       </c>
       <c r="K70">
-        <v>1.02</v>
+        <v>0.88</v>
       </c>
       <c r="L70">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="M70">
-        <v>2.31</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" t="s">
-        <v>13</v>
-      </c>
-      <c r="B71" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B71">
+        <v>301291</v>
       </c>
       <c r="C71" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D71">
-        <v>28.76</v>
+        <v>28.56</v>
       </c>
       <c r="E71">
-        <v>28.73</v>
+        <v>28.85</v>
       </c>
       <c r="F71">
-        <v>28.8</v>
+        <v>28.96</v>
       </c>
       <c r="G71">
-        <v>28.48</v>
+        <v>28.37</v>
       </c>
       <c r="H71">
-        <v>12417</v>
+        <v>16474</v>
       </c>
       <c r="I71">
-        <v>35666787</v>
+        <v>47449725</v>
       </c>
       <c r="J71">
-        <v>1.11</v>
+        <v>2.07</v>
       </c>
       <c r="K71">
-        <v>-0.42</v>
+        <v>1.02</v>
       </c>
       <c r="L71">
-        <v>-0.12</v>
+        <v>0.29</v>
       </c>
       <c r="M71">
-        <v>1.74</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="72" spans="1:13">
       <c r="A72" t="s">
-        <v>13</v>
-      </c>
-      <c r="B72" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B72">
+        <v>301291</v>
       </c>
       <c r="C72" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D72">
-        <v>28.62</v>
+        <v>28.76</v>
       </c>
       <c r="E72">
-        <v>28.28</v>
+        <v>28.73</v>
       </c>
       <c r="F72">
-        <v>28.92</v>
+        <v>28.8</v>
       </c>
       <c r="G72">
-        <v>28.18</v>
+        <v>28.48</v>
       </c>
       <c r="H72">
-        <v>14642</v>
+        <v>12417</v>
       </c>
       <c r="I72">
-        <v>41832021</v>
+        <v>35666787</v>
       </c>
       <c r="J72">
-        <v>2.58</v>
+        <v>1.11</v>
       </c>
       <c r="K72">
-        <v>-1.57</v>
+        <v>-0.42</v>
       </c>
       <c r="L72">
-        <v>-0.45</v>
+        <v>-0.12</v>
       </c>
       <c r="M72">
-        <v>2.05</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="73" spans="1:13">
       <c r="A73" t="s">
-        <v>13</v>
-      </c>
-      <c r="B73" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B73">
+        <v>301291</v>
       </c>
       <c r="C73" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D73">
+        <v>28.62</v>
+      </c>
+      <c r="E73">
         <v>28.28</v>
       </c>
-      <c r="E73">
-        <v>28.42</v>
-      </c>
       <c r="F73">
-        <v>28.73</v>
+        <v>28.92</v>
       </c>
       <c r="G73">
-        <v>28.04</v>
+        <v>28.18</v>
       </c>
       <c r="H73">
-        <v>11969</v>
+        <v>14642</v>
       </c>
       <c r="I73">
-        <v>34021485</v>
+        <v>41832021</v>
       </c>
       <c r="J73">
-        <v>2.44</v>
+        <v>2.58</v>
       </c>
       <c r="K73">
-        <v>0.5</v>
+        <v>-1.57</v>
       </c>
       <c r="L73">
-        <v>0.14</v>
+        <v>-0.45</v>
       </c>
       <c r="M73">
-        <v>1.68</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="74" spans="1:13">
       <c r="A74" t="s">
-        <v>13</v>
-      </c>
-      <c r="B74" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B74">
+        <v>301291</v>
       </c>
       <c r="C74" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D74">
-        <v>28.3</v>
+        <v>28.28</v>
       </c>
       <c r="E74">
-        <v>27.51</v>
+        <v>28.42</v>
       </c>
       <c r="F74">
-        <v>28.34</v>
+        <v>28.73</v>
       </c>
       <c r="G74">
-        <v>27.45</v>
+        <v>28.04</v>
       </c>
       <c r="H74">
-        <v>15816</v>
+        <v>11969</v>
       </c>
       <c r="I74">
-        <v>44086116</v>
+        <v>34021485</v>
       </c>
       <c r="J74">
-        <v>3.13</v>
+        <v>2.44</v>
       </c>
       <c r="K74">
-        <v>-3.2</v>
+        <v>0.5</v>
       </c>
       <c r="L74">
-        <v>-0.91</v>
+        <v>0.14</v>
       </c>
       <c r="M74">
-        <v>2.22</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="75" spans="1:13">
       <c r="A75" t="s">
-        <v>13</v>
-      </c>
-      <c r="B75" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B75">
+        <v>301291</v>
       </c>
       <c r="C75" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D75">
-        <v>27.5</v>
+        <v>28.3</v>
       </c>
       <c r="E75">
-        <v>27.16</v>
+        <v>27.51</v>
       </c>
       <c r="F75">
-        <v>27.77</v>
+        <v>28.34</v>
       </c>
       <c r="G75">
-        <v>27.13</v>
+        <v>27.45</v>
       </c>
       <c r="H75">
-        <v>11675</v>
+        <v>15816</v>
       </c>
       <c r="I75">
-        <v>32093658</v>
+        <v>44086116</v>
       </c>
       <c r="J75">
-        <v>2.33</v>
+        <v>3.13</v>
       </c>
       <c r="K75">
-        <v>-1.27</v>
+        <v>-3.2</v>
       </c>
       <c r="L75">
-        <v>-0.35</v>
+        <v>-0.91</v>
       </c>
       <c r="M75">
-        <v>1.64</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="76" spans="1:13">
       <c r="A76" t="s">
-        <v>13</v>
-      </c>
-      <c r="B76" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B76">
+        <v>301291</v>
       </c>
       <c r="C76" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D76">
+        <v>27.5</v>
+      </c>
+      <c r="E76">
         <v>27.16</v>
       </c>
-      <c r="E76">
-        <v>27.17</v>
-      </c>
       <c r="F76">
-        <v>27.6</v>
+        <v>27.77</v>
       </c>
       <c r="G76">
-        <v>27.08</v>
+        <v>27.13</v>
       </c>
       <c r="H76">
-        <v>10219</v>
+        <v>11675</v>
       </c>
       <c r="I76">
-        <v>28004317</v>
+        <v>32093658</v>
       </c>
       <c r="J76">
-        <v>1.91</v>
+        <v>2.33</v>
       </c>
       <c r="K76">
-        <v>0.04</v>
+        <v>-1.27</v>
       </c>
       <c r="L76">
-        <v>0.01</v>
+        <v>-0.35</v>
       </c>
       <c r="M76">
-        <v>1.43</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="77" spans="1:13">
       <c r="A77" t="s">
-        <v>13</v>
-      </c>
-      <c r="B77" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B77">
+        <v>301291</v>
       </c>
       <c r="C77" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D77">
-        <v>27.12</v>
+        <v>27.16</v>
       </c>
       <c r="E77">
-        <v>26.18</v>
+        <v>27.17</v>
       </c>
       <c r="F77">
-        <v>27.12</v>
+        <v>27.6</v>
       </c>
       <c r="G77">
-        <v>26.07</v>
+        <v>27.08</v>
       </c>
       <c r="H77">
-        <v>12510</v>
+        <v>10219</v>
       </c>
       <c r="I77">
-        <v>33117226</v>
+        <v>28004317</v>
       </c>
       <c r="J77">
-        <v>3.86</v>
+        <v>1.91</v>
       </c>
       <c r="K77">
-        <v>-3.64</v>
+        <v>0.04</v>
       </c>
       <c r="L77">
-        <v>-0.99</v>
+        <v>0.01</v>
       </c>
       <c r="M77">
-        <v>1.75</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="78" spans="1:13">
       <c r="A78" t="s">
-        <v>13</v>
-      </c>
-      <c r="B78" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B78">
+        <v>301291</v>
       </c>
       <c r="C78" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D78">
-        <v>26.24</v>
+        <v>27.12</v>
       </c>
       <c r="E78">
-        <v>26.71</v>
+        <v>26.18</v>
       </c>
       <c r="F78">
-        <v>26.8</v>
+        <v>27.12</v>
       </c>
       <c r="G78">
-        <v>26.11</v>
+        <v>26.07</v>
       </c>
       <c r="H78">
-        <v>12772</v>
+        <v>12510</v>
       </c>
       <c r="I78">
-        <v>33947780</v>
+        <v>33117226</v>
       </c>
       <c r="J78">
-        <v>2.64</v>
+        <v>3.86</v>
       </c>
       <c r="K78">
-        <v>2.02</v>
+        <v>-3.64</v>
       </c>
       <c r="L78">
-        <v>0.53</v>
+        <v>-0.99</v>
       </c>
       <c r="M78">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="79" spans="1:13">
       <c r="A79" t="s">
-        <v>13</v>
-      </c>
-      <c r="B79" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B79">
+        <v>301291</v>
       </c>
       <c r="C79" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D79">
-        <v>26.81</v>
+        <v>26.24</v>
       </c>
       <c r="E79">
-        <v>26.97</v>
+        <v>26.71</v>
       </c>
       <c r="F79">
-        <v>27.05</v>
+        <v>26.8</v>
       </c>
       <c r="G79">
-        <v>26.72</v>
+        <v>26.11</v>
       </c>
       <c r="H79">
-        <v>10258</v>
+        <v>12772</v>
       </c>
       <c r="I79">
-        <v>27607235</v>
+        <v>33947780</v>
       </c>
       <c r="J79">
-        <v>1.24</v>
+        <v>2.64</v>
       </c>
       <c r="K79">
-        <v>0.97</v>
+        <v>2.02</v>
       </c>
       <c r="L79">
-        <v>0.26</v>
+        <v>0.53</v>
       </c>
       <c r="M79">
-        <v>1.44</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="80" spans="1:13">
       <c r="A80" t="s">
-        <v>13</v>
-      </c>
-      <c r="B80" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B80">
+        <v>301291</v>
       </c>
       <c r="C80" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D80">
-        <v>26.86</v>
+        <v>26.81</v>
       </c>
       <c r="E80">
-        <v>27.11</v>
+        <v>26.97</v>
       </c>
       <c r="F80">
-        <v>27.18</v>
+        <v>27.05</v>
       </c>
       <c r="G80">
-        <v>26.46</v>
+        <v>26.72</v>
       </c>
       <c r="H80">
-        <v>11755</v>
+        <v>10258</v>
       </c>
       <c r="I80">
-        <v>31534459</v>
+        <v>27607235</v>
       </c>
       <c r="J80">
-        <v>2.67</v>
+        <v>1.24</v>
       </c>
       <c r="K80">
-        <v>0.52</v>
+        <v>0.97</v>
       </c>
       <c r="L80">
-        <v>0.14</v>
+        <v>0.26</v>
       </c>
       <c r="M80">
-        <v>1.65</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="81" spans="1:13">
       <c r="A81" t="s">
-        <v>13</v>
-      </c>
-      <c r="B81" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B81">
+        <v>301291</v>
       </c>
       <c r="C81" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D81">
-        <v>27.16</v>
+        <v>26.86</v>
       </c>
       <c r="E81">
-        <v>28.84</v>
+        <v>27.11</v>
       </c>
       <c r="F81">
-        <v>29.67</v>
+        <v>27.18</v>
       </c>
       <c r="G81">
-        <v>27.03</v>
+        <v>26.46</v>
       </c>
       <c r="H81">
-        <v>67739</v>
+        <v>11755</v>
       </c>
       <c r="I81">
-        <v>195829195</v>
+        <v>31534459</v>
       </c>
       <c r="J81">
-        <v>9.74</v>
+        <v>2.67</v>
       </c>
       <c r="K81">
-        <v>6.38</v>
+        <v>0.52</v>
       </c>
       <c r="L81">
-        <v>1.73</v>
+        <v>0.14</v>
       </c>
       <c r="M81">
-        <v>9.5</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="82" spans="1:13">
       <c r="A82" t="s">
-        <v>13</v>
-      </c>
-      <c r="B82" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B82">
+        <v>301291</v>
       </c>
       <c r="C82" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D82">
-        <v>29.44</v>
+        <v>27.16</v>
       </c>
       <c r="E82">
-        <v>29.98</v>
+        <v>28.84</v>
       </c>
       <c r="F82">
-        <v>30.23</v>
+        <v>29.67</v>
       </c>
       <c r="G82">
-        <v>29</v>
+        <v>27.03</v>
       </c>
       <c r="H82">
-        <v>55943</v>
+        <v>67739</v>
       </c>
       <c r="I82">
-        <v>167492536</v>
+        <v>195829195</v>
       </c>
       <c r="J82">
-        <v>4.26</v>
+        <v>9.74</v>
       </c>
       <c r="K82">
-        <v>3.95</v>
+        <v>6.38</v>
       </c>
       <c r="L82">
-        <v>1.14</v>
+        <v>1.73</v>
       </c>
       <c r="M82">
-        <v>7.84</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="83" spans="1:13">
       <c r="A83" t="s">
-        <v>13</v>
-      </c>
-      <c r="B83" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B83">
+        <v>301291</v>
       </c>
       <c r="C83" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D83">
-        <v>29.8</v>
+        <v>29.44</v>
       </c>
       <c r="E83">
-        <v>29.89</v>
+        <v>29.98</v>
       </c>
       <c r="F83">
-        <v>30.38</v>
+        <v>30.23</v>
       </c>
       <c r="G83">
-        <v>29.49</v>
+        <v>29</v>
       </c>
       <c r="H83">
-        <v>30908</v>
+        <v>55943</v>
       </c>
       <c r="I83">
-        <v>92586322</v>
+        <v>167492536</v>
       </c>
       <c r="J83">
-        <v>2.97</v>
+        <v>4.26</v>
       </c>
       <c r="K83">
-        <v>-0.3</v>
+        <v>3.95</v>
       </c>
       <c r="L83">
-        <v>-0.09</v>
+        <v>1.14</v>
       </c>
       <c r="M83">
-        <v>4.33</v>
+        <v>7.84</v>
       </c>
     </row>
     <row r="84" spans="1:13">
       <c r="A84" t="s">
-        <v>13</v>
-      </c>
-      <c r="B84" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B84">
+        <v>301291</v>
       </c>
       <c r="C84" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D84">
-        <v>30.07</v>
+        <v>29.8</v>
       </c>
       <c r="E84">
-        <v>29.78</v>
+        <v>29.89</v>
       </c>
       <c r="F84">
-        <v>30.07</v>
+        <v>30.38</v>
       </c>
       <c r="G84">
-        <v>29.51</v>
+        <v>29.49</v>
       </c>
       <c r="H84">
-        <v>17362</v>
+        <v>30908</v>
       </c>
       <c r="I84">
-        <v>51692352</v>
+        <v>92586322</v>
       </c>
       <c r="J84">
-        <v>1.87</v>
+        <v>2.97</v>
       </c>
       <c r="K84">
-        <v>-0.37</v>
+        <v>-0.3</v>
       </c>
       <c r="L84">
-        <v>-0.11</v>
+        <v>-0.09</v>
       </c>
       <c r="M84">
-        <v>2.43</v>
+        <v>4.33</v>
       </c>
     </row>
     <row r="85" spans="1:13">
       <c r="A85" t="s">
-        <v>13</v>
-      </c>
-      <c r="B85" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B85">
+        <v>301291</v>
       </c>
       <c r="C85" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="D85">
-        <v>29.9</v>
+        <v>30.07</v>
       </c>
       <c r="E85">
-        <v>29.11</v>
+        <v>29.78</v>
       </c>
       <c r="F85">
-        <v>29.9</v>
+        <v>30.07</v>
       </c>
       <c r="G85">
-        <v>29.05</v>
+        <v>29.51</v>
       </c>
       <c r="H85">
-        <v>19476</v>
+        <v>17362</v>
       </c>
       <c r="I85">
-        <v>57284721</v>
+        <v>51692352</v>
       </c>
       <c r="J85">
-        <v>2.85</v>
+        <v>1.87</v>
       </c>
       <c r="K85">
-        <v>-2.25</v>
+        <v>-0.37</v>
       </c>
       <c r="L85">
-        <v>-0.67</v>
+        <v>-0.11</v>
       </c>
       <c r="M85">
-        <v>2.73</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="86" spans="1:13">
       <c r="A86" t="s">
-        <v>13</v>
-      </c>
-      <c r="B86" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B86">
+        <v>301291</v>
       </c>
       <c r="C86" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D86">
+        <v>29.9</v>
+      </c>
+      <c r="E86">
+        <v>29.11</v>
+      </c>
+      <c r="F86">
+        <v>29.9</v>
+      </c>
+      <c r="G86">
+        <v>29.05</v>
+      </c>
+      <c r="H86">
+        <v>19476</v>
+      </c>
+      <c r="I86">
+        <v>57284721</v>
+      </c>
+      <c r="J86">
+        <v>2.85</v>
+      </c>
+      <c r="K86">
+        <v>-2.25</v>
+      </c>
+      <c r="L86">
+        <v>-0.67</v>
+      </c>
+      <c r="M86">
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
+      <c r="A87" t="s">
+        <v>22</v>
+      </c>
+      <c r="B87">
+        <v>301291</v>
+      </c>
+      <c r="C87" t="s">
+        <v>107</v>
+      </c>
+      <c r="D87">
         <v>29.07</v>
       </c>
-      <c r="E86">
+      <c r="E87">
         <v>29.14</v>
       </c>
-      <c r="F86">
+      <c r="F87">
         <v>29.51</v>
       </c>
-      <c r="G86">
+      <c r="G87">
         <v>29.07</v>
       </c>
-      <c r="H86">
+      <c r="H87">
         <v>14584</v>
       </c>
-      <c r="I86">
+      <c r="I87">
         <v>42702558.36</v>
       </c>
-      <c r="J86">
+      <c r="J87">
         <v>1.51</v>
       </c>
-      <c r="K86">
+      <c r="K87">
         <v>0.1</v>
       </c>
-      <c r="L86">
+      <c r="L87">
         <v>0.03</v>
       </c>
-      <c r="M86">
+      <c r="M87">
         <v>2.04</v>
       </c>
     </row>
